--- a/PWL_POS/public/template_import/template_user.xlsx
+++ b/PWL_POS/public/template_import/template_user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projek\laravel\web_lanjut\PWL_POS\public\template_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6444A00-0A3E-41B3-9FC7-DB9F5125AC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB72F96-9614-4568-947A-DC7D134E8460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6945" yWindow="6930" windowWidth="21600" windowHeight="11430" xr2:uid="{34CD1490-9D8E-49F7-AB67-E98F4C1998BF}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11430" xr2:uid="{34CD1490-9D8E-49F7-AB67-E98F4C1998BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>level_id</t>
-  </si>
-  <si>
-    <t>user_id</t>
   </si>
   <si>
     <t>username</t>
@@ -400,27 +397,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5E1D16-5E42-4D36-A89A-8983193B4935}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -428,9 +424,6 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
